--- a/biology/Zoologie/Cryptocelidae/Cryptocelidae.xlsx
+++ b/biology/Zoologie/Cryptocelidae/Cryptocelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocelididae
 Les Cryptocelidae (synonyme Cryptocelididae) sont une famille de vers plats marins, de la super-famille des Discoceloidea, du sous-ordre des Acotylea et de l'ordre des Polycladida.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,11 +554,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cryptocelidae
-Le nom valide complet (avec auteur) de ce taxon est Cryptocelidae Laidlaw, 1903[1].
-Cryptocelidae a pour synonyme[1] Cryptocelididae Laidlaw, 1903
-Décomposition de Cryptocelidae
-Selon la base de données World Register of Marine Species                               (11 novembre 2023)[1], la famille des Cryptocelidae se décompose comme suit :
+          <t>Cryptocelidae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryptocelidae Laidlaw, 1903.
+Cryptocelidae a pour synonyme Cryptocelididae Laidlaw, 1903
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cryptocelidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptocelidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décomposition de Cryptocelidae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (11 novembre 2023), la famille des Cryptocelidae se décompose comme suit :
 genre Adenodactyloplana Bulnes, Faubel &amp; Ponce de Leon, 2003
 sous-famille des Cryptocelidinae Prudhoe, 1985 (Aucun sous-taxon)
 genre Cryptocelis Lang, 1884
